--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E867"/>
+  <dimension ref="A1:E868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15041,7 +15041,7 @@
         <v>44348</v>
       </c>
       <c r="B859" t="n">
-        <v>-0.3646666666666611</v>
+        <v>-0.3746666666666627</v>
       </c>
       <c r="C859" t="n">
         <v>-0.3193333333333328</v>
@@ -15075,7 +15075,7 @@
         <v>44409</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.2659999999999982</v>
+        <v>-0.2959999999999958</v>
       </c>
       <c r="C861" t="n">
         <v>-0.4583333333333321</v>
@@ -15095,13 +15095,13 @@
         <v>-0.7063333333333297</v>
       </c>
       <c r="C862" t="n">
-        <v>-0.4413333333333291</v>
+        <v>-0.4313333333333311</v>
       </c>
       <c r="D862" t="n">
         <v>-0.5413333333333448</v>
       </c>
       <c r="E862" t="n">
-        <v>-0.5586666666666638</v>
+        <v>-0.5486666666666622</v>
       </c>
     </row>
     <row r="863">
@@ -15112,10 +15112,10 @@
         <v>-0.8719999999999999</v>
       </c>
       <c r="C863" t="n">
-        <v>-0.7913333333333341</v>
+        <v>-0.7813333333333361</v>
       </c>
       <c r="D863" t="n">
-        <v>-0.7206666666666699</v>
+        <v>-0.7306666666666679</v>
       </c>
       <c r="E863" t="n">
         <v>-0.9463333333333388</v>
@@ -15132,7 +15132,7 @@
         <v>-1.033000000000001</v>
       </c>
       <c r="D864" t="n">
-        <v>-0.6969999999999992</v>
+        <v>-0.6769999999999996</v>
       </c>
       <c r="E864" t="n">
         <v>-0.9426666666666677</v>
@@ -15143,16 +15143,16 @@
         <v>44531</v>
       </c>
       <c r="B865" t="n">
-        <v>-1.677333333333333</v>
+        <v>-1.697333333333333</v>
       </c>
       <c r="C865" t="n">
         <v>-1.269666666666666</v>
       </c>
       <c r="D865" t="n">
-        <v>-0.7493333333333325</v>
+        <v>-0.739333333333331</v>
       </c>
       <c r="E865" t="n">
-        <v>-1.068999999999999</v>
+        <v>-1.059000000000001</v>
       </c>
     </row>
     <row r="866">
@@ -15160,7 +15160,7 @@
         <v>44562</v>
       </c>
       <c r="B866" t="n">
-        <v>-1.115333333333339</v>
+        <v>-1.09533333333334</v>
       </c>
       <c r="C866" t="n">
         <v>-1.318666666666665</v>
@@ -15177,16 +15177,33 @@
         <v>44593</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.549666666666671</v>
+        <v>-1.539666666666673</v>
       </c>
       <c r="C867" t="n">
-        <v>-1.184999999999999</v>
+        <v>-1.144999999999996</v>
       </c>
       <c r="D867" t="n">
-        <v>-0.3673333333333382</v>
+        <v>-0.3873333333333377</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.8923333333333368</v>
+        <v>-0.9023333333333348</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B868" t="n">
+        <v>-0.6480000000000032</v>
+      </c>
+      <c r="C868" t="n">
+        <v>-0.7636666666666621</v>
+      </c>
+      <c r="D868" t="n">
+        <v>-0.7010000000000041</v>
+      </c>
+      <c r="E868" t="n">
+        <v>-1.003000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E868"/>
+  <dimension ref="A1:E869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15177,7 +15177,7 @@
         <v>44593</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.539666666666673</v>
+        <v>-1.559666666666672</v>
       </c>
       <c r="C867" t="n">
         <v>-1.144999999999996</v>
@@ -15186,7 +15186,7 @@
         <v>-0.3873333333333377</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.9023333333333348</v>
+        <v>-0.8923333333333368</v>
       </c>
     </row>
     <row r="868">
@@ -15194,16 +15194,33 @@
         <v>44621</v>
       </c>
       <c r="B868" t="n">
-        <v>-0.6480000000000032</v>
+        <v>-0.7280000000000015</v>
       </c>
       <c r="C868" t="n">
-        <v>-0.7636666666666621</v>
+        <v>-0.7436666666666625</v>
       </c>
       <c r="D868" t="n">
-        <v>-0.7010000000000041</v>
+        <v>-0.7110000000000056</v>
       </c>
       <c r="E868" t="n">
-        <v>-1.003000000000004</v>
+        <v>-0.9830000000000041</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B869" t="n">
+        <v>-1.315999999999999</v>
+      </c>
+      <c r="C869" t="n">
+        <v>-0.9106666666666676</v>
+      </c>
+      <c r="D869" t="n">
+        <v>-0.8370000000000033</v>
+      </c>
+      <c r="E869" t="n">
+        <v>-1.12866666666666</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E869"/>
+  <dimension ref="A1:E870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15186,7 +15186,7 @@
         <v>-0.3873333333333377</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.8923333333333368</v>
+        <v>-0.9023333333333348</v>
       </c>
     </row>
     <row r="868">
@@ -15194,7 +15194,7 @@
         <v>44621</v>
       </c>
       <c r="B868" t="n">
-        <v>-0.7280000000000015</v>
+        <v>-0.7380000000000031</v>
       </c>
       <c r="C868" t="n">
         <v>-0.7436666666666625</v>
@@ -15211,16 +15211,33 @@
         <v>44652</v>
       </c>
       <c r="B869" t="n">
-        <v>-1.315999999999999</v>
+        <v>-1.405999999999999</v>
       </c>
       <c r="C869" t="n">
-        <v>-0.9106666666666676</v>
+        <v>-0.9306666666666707</v>
       </c>
       <c r="D869" t="n">
-        <v>-0.8370000000000033</v>
+        <v>-0.8470000000000013</v>
       </c>
       <c r="E869" t="n">
-        <v>-1.12866666666666</v>
+        <v>-1.118666666666662</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B870" t="n">
+        <v>-1.635333333333328</v>
+      </c>
+      <c r="C870" t="n">
+        <v>-1.06133333333333</v>
+      </c>
+      <c r="D870" t="n">
+        <v>-0.8266666666666751</v>
+      </c>
+      <c r="E870" t="n">
+        <v>-1.153333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E870"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15211,10 +15211,10 @@
         <v>44652</v>
       </c>
       <c r="B869" t="n">
-        <v>-1.405999999999999</v>
+        <v>-1.385999999999999</v>
       </c>
       <c r="C869" t="n">
-        <v>-0.9306666666666707</v>
+        <v>-0.9206666666666692</v>
       </c>
       <c r="D869" t="n">
         <v>-0.8470000000000013</v>
@@ -15228,16 +15228,33 @@
         <v>44682</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.635333333333328</v>
+        <v>-1.655333333333328</v>
       </c>
       <c r="C870" t="n">
-        <v>-1.06133333333333</v>
+        <v>-1.051333333333332</v>
       </c>
       <c r="D870" t="n">
-        <v>-0.8266666666666751</v>
+        <v>-0.8166666666666735</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.153333333333332</v>
+        <v>-1.123333333333335</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B871" t="n">
+        <v>-1.474666666666664</v>
+      </c>
+      <c r="C871" t="n">
+        <v>-0.8193333333333328</v>
+      </c>
+      <c r="D871" t="n">
+        <v>-0.7089999999999996</v>
+      </c>
+      <c r="E871" t="n">
+        <v>-0.7666666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E871"/>
+  <dimension ref="A1:E872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15214,7 +15214,7 @@
         <v>-1.385999999999999</v>
       </c>
       <c r="C869" t="n">
-        <v>-0.9206666666666692</v>
+        <v>-0.9306666666666707</v>
       </c>
       <c r="D869" t="n">
         <v>-0.8470000000000013</v>
@@ -15228,7 +15228,7 @@
         <v>44682</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.655333333333328</v>
+        <v>-1.64533333333333</v>
       </c>
       <c r="C870" t="n">
         <v>-1.051333333333332</v>
@@ -15237,7 +15237,7 @@
         <v>-0.8166666666666735</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.123333333333335</v>
+        <v>-1.113333333333333</v>
       </c>
     </row>
     <row r="871">
@@ -15248,13 +15248,30 @@
         <v>-1.474666666666664</v>
       </c>
       <c r="C871" t="n">
-        <v>-0.8193333333333328</v>
+        <v>-0.8093333333333348</v>
       </c>
       <c r="D871" t="n">
-        <v>-0.7089999999999996</v>
+        <v>-0.7190000000000012</v>
       </c>
       <c r="E871" t="n">
-        <v>-0.7666666666666657</v>
+        <v>-0.7566666666666677</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B872" t="n">
+        <v>-1.278999999999996</v>
+      </c>
+      <c r="C872" t="n">
+        <v>-0.5246666666666684</v>
+      </c>
+      <c r="D872" t="n">
+        <v>-0.9786666666666584</v>
+      </c>
+      <c r="E872" t="n">
+        <v>-0.6733333333333285</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E872"/>
+  <dimension ref="A1:E873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15237,7 +15237,7 @@
         <v>-0.8166666666666735</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.113333333333333</v>
+        <v>-1.123333333333335</v>
       </c>
     </row>
     <row r="871">
@@ -15262,16 +15262,33 @@
         <v>44743</v>
       </c>
       <c r="B872" t="n">
-        <v>-1.278999999999996</v>
+        <v>-1.188999999999997</v>
       </c>
       <c r="C872" t="n">
-        <v>-0.5246666666666684</v>
+        <v>-0.53466666666667</v>
       </c>
       <c r="D872" t="n">
-        <v>-0.9786666666666584</v>
+        <v>-0.9986666666666615</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.6733333333333285</v>
+        <v>-0.7033333333333296</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B873" t="n">
+        <v>-0.4859999999999971</v>
+      </c>
+      <c r="C873" t="n">
+        <v>-0.6483333333333334</v>
+      </c>
+      <c r="D873" t="n">
+        <v>-1.088333333333338</v>
+      </c>
+      <c r="E873" t="n">
+        <v>-0.9650000000000034</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E873"/>
+  <dimension ref="A1:E874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15279,16 +15279,33 @@
         <v>44774</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.4859999999999971</v>
+        <v>-0.575999999999997</v>
       </c>
       <c r="C873" t="n">
-        <v>-0.6483333333333334</v>
+        <v>-0.678333333333331</v>
       </c>
       <c r="D873" t="n">
-        <v>-1.088333333333338</v>
+        <v>-1.098333333333336</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.9650000000000034</v>
+        <v>-0.985000000000003</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B874" t="n">
+        <v>-1.02633333333333</v>
+      </c>
+      <c r="C874" t="n">
+        <v>-0.9613333333333287</v>
+      </c>
+      <c r="D874" t="n">
+        <v>-1.181333333333345</v>
+      </c>
+      <c r="E874" t="n">
+        <v>-1.098666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E874"/>
+  <dimension ref="A1:E875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15262,7 +15262,7 @@
         <v>44743</v>
       </c>
       <c r="B872" t="n">
-        <v>-1.188999999999997</v>
+        <v>-1.178999999999995</v>
       </c>
       <c r="C872" t="n">
         <v>-0.53466666666667</v>
@@ -15296,16 +15296,33 @@
         <v>44805</v>
       </c>
       <c r="B874" t="n">
-        <v>-1.02633333333333</v>
+        <v>-1.016333333333328</v>
       </c>
       <c r="C874" t="n">
-        <v>-0.9613333333333287</v>
+        <v>-0.9713333333333303</v>
       </c>
       <c r="D874" t="n">
         <v>-1.181333333333345</v>
       </c>
       <c r="E874" t="n">
-        <v>-1.098666666666663</v>
+        <v>-1.078666666666663</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B875" t="n">
+        <v>-1.811999999999998</v>
+      </c>
+      <c r="C875" t="n">
+        <v>-1.131333333333334</v>
+      </c>
+      <c r="D875" t="n">
+        <v>-1.140666666666668</v>
+      </c>
+      <c r="E875" t="n">
+        <v>-1.026333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E875"/>
+  <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15296,10 +15296,10 @@
         <v>44805</v>
       </c>
       <c r="B874" t="n">
-        <v>-1.016333333333328</v>
+        <v>-1.00633333333333</v>
       </c>
       <c r="C874" t="n">
-        <v>-0.9713333333333303</v>
+        <v>-0.9613333333333287</v>
       </c>
       <c r="D874" t="n">
         <v>-1.181333333333345</v>
@@ -15313,16 +15313,33 @@
         <v>44835</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.811999999999998</v>
+        <v>-1.791999999999998</v>
       </c>
       <c r="C875" t="n">
-        <v>-1.131333333333334</v>
+        <v>-1.111333333333334</v>
       </c>
       <c r="D875" t="n">
-        <v>-1.140666666666668</v>
+        <v>-1.13066666666667</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.026333333333337</v>
+        <v>-0.9963333333333395</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B876" t="n">
+        <v>-1.249333333333333</v>
+      </c>
+      <c r="C876" t="n">
+        <v>-0.9730000000000025</v>
+      </c>
+      <c r="D876" t="n">
+        <v>-0.9969999999999999</v>
+      </c>
+      <c r="E876" t="n">
+        <v>-0.9026666666666685</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E876"/>
+  <dimension ref="A1:E877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15160,16 +15160,16 @@
         <v>44562</v>
       </c>
       <c r="B866" t="n">
-        <v>-1.09533333333334</v>
+        <v>-1.105333333333338</v>
       </c>
       <c r="C866" t="n">
-        <v>-1.318666666666665</v>
+        <v>-1.308666666666664</v>
       </c>
       <c r="D866" t="n">
-        <v>-0.3790000000000013</v>
+        <v>-0.3690000000000033</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.9543333333333344</v>
+        <v>-0.9443333333333328</v>
       </c>
     </row>
     <row r="867">
@@ -15177,16 +15177,16 @@
         <v>44593</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.559666666666672</v>
+        <v>-1.579666666666672</v>
       </c>
       <c r="C867" t="n">
         <v>-1.144999999999996</v>
       </c>
       <c r="D867" t="n">
-        <v>-0.3873333333333377</v>
+        <v>-0.3673333333333382</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.9023333333333348</v>
+        <v>-0.8923333333333368</v>
       </c>
     </row>
     <row r="868">
@@ -15194,16 +15194,16 @@
         <v>44621</v>
       </c>
       <c r="B868" t="n">
-        <v>-0.7380000000000031</v>
+        <v>-0.7580000000000027</v>
       </c>
       <c r="C868" t="n">
-        <v>-0.7436666666666625</v>
+        <v>-0.7336666666666645</v>
       </c>
       <c r="D868" t="n">
-        <v>-0.7110000000000056</v>
+        <v>-0.6910000000000061</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.9830000000000041</v>
+        <v>-0.9730000000000061</v>
       </c>
     </row>
     <row r="869">
@@ -15211,13 +15211,13 @@
         <v>44652</v>
       </c>
       <c r="B869" t="n">
-        <v>-1.385999999999999</v>
+        <v>-1.395999999999997</v>
       </c>
       <c r="C869" t="n">
-        <v>-0.9306666666666707</v>
+        <v>-0.9206666666666692</v>
       </c>
       <c r="D869" t="n">
-        <v>-0.8470000000000013</v>
+        <v>-0.8270000000000017</v>
       </c>
       <c r="E869" t="n">
         <v>-1.118666666666662</v>
@@ -15228,16 +15228,16 @@
         <v>44682</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.64533333333333</v>
+        <v>-1.655333333333328</v>
       </c>
       <c r="C870" t="n">
         <v>-1.051333333333332</v>
       </c>
       <c r="D870" t="n">
-        <v>-0.8166666666666735</v>
+        <v>-0.796666666666674</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.123333333333335</v>
+        <v>-1.113333333333333</v>
       </c>
     </row>
     <row r="871">
@@ -15245,16 +15245,16 @@
         <v>44713</v>
       </c>
       <c r="B871" t="n">
-        <v>-1.474666666666664</v>
+        <v>-1.494666666666664</v>
       </c>
       <c r="C871" t="n">
         <v>-0.8093333333333348</v>
       </c>
       <c r="D871" t="n">
-        <v>-0.7190000000000012</v>
+        <v>-0.6990000000000016</v>
       </c>
       <c r="E871" t="n">
-        <v>-0.7566666666666677</v>
+        <v>-0.7466666666666661</v>
       </c>
     </row>
     <row r="872">
@@ -15262,16 +15262,16 @@
         <v>44743</v>
       </c>
       <c r="B872" t="n">
-        <v>-1.178999999999995</v>
+        <v>-1.198999999999995</v>
       </c>
       <c r="C872" t="n">
-        <v>-0.53466666666667</v>
+        <v>-0.5246666666666684</v>
       </c>
       <c r="D872" t="n">
-        <v>-0.9986666666666615</v>
+        <v>-0.9786666666666584</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.7033333333333296</v>
+        <v>-0.693333333333328</v>
       </c>
     </row>
     <row r="873">
@@ -15279,16 +15279,16 @@
         <v>44774</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.575999999999997</v>
+        <v>-0.5959999999999965</v>
       </c>
       <c r="C873" t="n">
         <v>-0.678333333333331</v>
       </c>
       <c r="D873" t="n">
-        <v>-1.098333333333336</v>
+        <v>-1.088333333333338</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.985000000000003</v>
+        <v>-0.975000000000005</v>
       </c>
     </row>
     <row r="874">
@@ -15296,16 +15296,16 @@
         <v>44805</v>
       </c>
       <c r="B874" t="n">
-        <v>-1.00633333333333</v>
+        <v>-1.02633333333333</v>
       </c>
       <c r="C874" t="n">
         <v>-0.9613333333333287</v>
       </c>
       <c r="D874" t="n">
-        <v>-1.181333333333345</v>
+        <v>-1.171333333333344</v>
       </c>
       <c r="E874" t="n">
-        <v>-1.078666666666663</v>
+        <v>-1.068666666666665</v>
       </c>
     </row>
     <row r="875">
@@ -15316,13 +15316,13 @@
         <v>-1.791999999999998</v>
       </c>
       <c r="C875" t="n">
-        <v>-1.111333333333334</v>
+        <v>-1.101333333333336</v>
       </c>
       <c r="D875" t="n">
-        <v>-1.13066666666667</v>
+        <v>-1.120666666666668</v>
       </c>
       <c r="E875" t="n">
-        <v>-0.9963333333333395</v>
+        <v>-0.9863333333333379</v>
       </c>
     </row>
     <row r="876">
@@ -15330,16 +15330,33 @@
         <v>44866</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.249333333333333</v>
+        <v>-1.129333333333332</v>
       </c>
       <c r="C876" t="n">
-        <v>-0.9730000000000025</v>
+        <v>-0.9430000000000014</v>
       </c>
       <c r="D876" t="n">
-        <v>-0.9969999999999999</v>
+        <v>-0.9869999999999983</v>
       </c>
       <c r="E876" t="n">
         <v>-0.9026666666666685</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B877" t="n">
+        <v>-0.5273333333333348</v>
+      </c>
+      <c r="C877" t="n">
+        <v>-0.8696666666666673</v>
+      </c>
+      <c r="D877" t="n">
+        <v>-0.86933333333333</v>
+      </c>
+      <c r="E877" t="n">
+        <v>-0.8889999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E877"/>
+  <dimension ref="A1:E879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15282,7 +15282,7 @@
         <v>-0.5959999999999965</v>
       </c>
       <c r="C873" t="n">
-        <v>-0.678333333333331</v>
+        <v>-0.668333333333333</v>
       </c>
       <c r="D873" t="n">
         <v>-1.088333333333338</v>
@@ -15330,7 +15330,7 @@
         <v>44866</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.129333333333332</v>
+        <v>-1.139333333333333</v>
       </c>
       <c r="C876" t="n">
         <v>-0.9430000000000014</v>
@@ -15347,16 +15347,50 @@
         <v>44896</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.5273333333333348</v>
+        <v>-0.4673333333333325</v>
       </c>
       <c r="C877" t="n">
-        <v>-0.8696666666666673</v>
+        <v>-0.8196666666666665</v>
       </c>
       <c r="D877" t="n">
-        <v>-0.86933333333333</v>
+        <v>-0.8393333333333324</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.8889999999999993</v>
+        <v>-0.8490000000000002</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B878" t="n">
+        <v>-0.5653333333333386</v>
+      </c>
+      <c r="C878" t="n">
+        <v>-0.5586666666666638</v>
+      </c>
+      <c r="D878" t="n">
+        <v>-0.6590000000000025</v>
+      </c>
+      <c r="E878" t="n">
+        <v>-0.7143333333333359</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0.2703333333333298</v>
+      </c>
+      <c r="C879" t="n">
+        <v>-0.2149999999999963</v>
+      </c>
+      <c r="D879" t="n">
+        <v>-0.6173333333333382</v>
+      </c>
+      <c r="E879" t="n">
+        <v>-0.5623333333333349</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E879"/>
+  <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15380,16 +15380,33 @@
         <v>44958</v>
       </c>
       <c r="B879" t="n">
-        <v>0.2703333333333298</v>
+        <v>0.4903333333333286</v>
       </c>
       <c r="C879" t="n">
-        <v>-0.2149999999999963</v>
+        <v>-0.09499999999999886</v>
       </c>
       <c r="D879" t="n">
-        <v>-0.6173333333333382</v>
+        <v>-0.5673333333333375</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.5623333333333349</v>
+        <v>-0.472333333333335</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B880" t="n">
+        <v>1.401999999999997</v>
+      </c>
+      <c r="C880" t="n">
+        <v>0.2563333333333375</v>
+      </c>
+      <c r="D880" t="n">
+        <v>-0.3210000000000051</v>
+      </c>
+      <c r="E880" t="n">
+        <v>-0.1530000000000058</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E880"/>
+  <dimension ref="A1:E881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15380,16 +15380,16 @@
         <v>44958</v>
       </c>
       <c r="B879" t="n">
-        <v>0.4903333333333286</v>
+        <v>0.4803333333333271</v>
       </c>
       <c r="C879" t="n">
         <v>-0.09499999999999886</v>
       </c>
       <c r="D879" t="n">
-        <v>-0.5673333333333375</v>
+        <v>-0.5573333333333359</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.472333333333335</v>
+        <v>-0.462333333333337</v>
       </c>
     </row>
     <row r="880">
@@ -15397,16 +15397,33 @@
         <v>44986</v>
       </c>
       <c r="B880" t="n">
-        <v>1.401999999999997</v>
+        <v>1.481999999999996</v>
       </c>
       <c r="C880" t="n">
-        <v>0.2563333333333375</v>
+        <v>0.2963333333333367</v>
       </c>
       <c r="D880" t="n">
-        <v>-0.3210000000000051</v>
+        <v>-0.2610000000000063</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.1530000000000058</v>
+        <v>-0.1030000000000051</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B881" t="n">
+        <v>2.654000000000003</v>
+      </c>
+      <c r="C881" t="n">
+        <v>0.4293333333333322</v>
+      </c>
+      <c r="D881" t="n">
+        <v>0.08299999999999841</v>
+      </c>
+      <c r="E881" t="n">
+        <v>0.09133333333333837</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E881"/>
+  <dimension ref="A1:E882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15281,7 +15281,7 @@
         <v>-0.5959999999999965</v>
       </c>
       <c r="C873" t="n">
-        <v>-0.668333333333333</v>
+        <v>-0.678333333333331</v>
       </c>
       <c r="D873" t="n">
         <v>-1.088333333333338</v>
@@ -15295,7 +15295,7 @@
         <v>44805</v>
       </c>
       <c r="B874" t="n">
-        <v>-1.02633333333333</v>
+        <v>-1.016333333333328</v>
       </c>
       <c r="C874" t="n">
         <v>-0.9613333333333287</v>
@@ -15414,16 +15414,33 @@
         <v>45017</v>
       </c>
       <c r="B881" t="n">
-        <v>2.654000000000003</v>
+        <v>2.624000000000002</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4293333333333322</v>
+        <v>0.4693333333333314</v>
       </c>
       <c r="D881" t="n">
-        <v>0.08299999999999841</v>
+        <v>0.1229999999999976</v>
       </c>
       <c r="E881" t="n">
-        <v>0.09133333333333837</v>
+        <v>0.1413333333333391</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B882" t="n">
+        <v>2.224666666666671</v>
+      </c>
+      <c r="C882" t="n">
+        <v>0.7786666666666697</v>
+      </c>
+      <c r="D882" t="n">
+        <v>0.2533333333333267</v>
+      </c>
+      <c r="E882" t="n">
+        <v>0.3966666666666647</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E882"/>
+  <dimension ref="A1:E883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15414,10 +15414,10 @@
         <v>45017</v>
       </c>
       <c r="B881" t="n">
-        <v>2.624000000000002</v>
+        <v>2.614000000000001</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4693333333333314</v>
+        <v>0.4793333333333294</v>
       </c>
       <c r="D881" t="n">
         <v>0.1229999999999976</v>
@@ -15434,13 +15434,30 @@
         <v>2.224666666666671</v>
       </c>
       <c r="C882" t="n">
-        <v>0.7786666666666697</v>
+        <v>0.84866666666667</v>
       </c>
       <c r="D882" t="n">
-        <v>0.2533333333333267</v>
+        <v>0.2933333333333259</v>
       </c>
       <c r="E882" t="n">
-        <v>0.3966666666666647</v>
+        <v>0.466666666666665</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B883" t="n">
+        <v>2.445333333333338</v>
+      </c>
+      <c r="C883" t="n">
+        <v>1.230666666666668</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0.5410000000000004</v>
+      </c>
+      <c r="E883" t="n">
+        <v>0.8133333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E883"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15431,7 +15431,7 @@
         <v>45047</v>
       </c>
       <c r="B882" t="n">
-        <v>2.224666666666671</v>
+        <v>2.21466666666667</v>
       </c>
       <c r="C882" t="n">
         <v>0.84866666666667</v>
@@ -15448,16 +15448,33 @@
         <v>45078</v>
       </c>
       <c r="B883" t="n">
-        <v>2.445333333333338</v>
+        <v>2.495333333333338</v>
       </c>
       <c r="C883" t="n">
-        <v>1.230666666666668</v>
+        <v>1.260666666666665</v>
       </c>
       <c r="D883" t="n">
-        <v>0.5410000000000004</v>
+        <v>0.570999999999998</v>
       </c>
       <c r="E883" t="n">
-        <v>0.8133333333333326</v>
+        <v>0.8433333333333337</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B884" t="n">
+        <v>2.901000000000003</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1.565333333333331</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0.6713333333333402</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1.006666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E884"/>
+  <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15465,16 +15465,33 @@
         <v>45108</v>
       </c>
       <c r="B884" t="n">
-        <v>2.901000000000003</v>
+        <v>2.981000000000005</v>
       </c>
       <c r="C884" t="n">
-        <v>1.565333333333331</v>
+        <v>1.605333333333331</v>
       </c>
       <c r="D884" t="n">
-        <v>0.6713333333333402</v>
+        <v>0.6913333333333398</v>
       </c>
       <c r="E884" t="n">
-        <v>1.006666666666671</v>
+        <v>1.026666666666671</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B885" t="n">
+        <v>3.324000000000002</v>
+      </c>
+      <c r="C885" t="n">
+        <v>1.971666666666668</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0.9016666666666637</v>
+      </c>
+      <c r="E885" t="n">
+        <v>1.304999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E885"/>
+  <dimension ref="A1:E886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15482,16 +15482,33 @@
         <v>45139</v>
       </c>
       <c r="B885" t="n">
-        <v>3.324000000000002</v>
+        <v>3.284000000000002</v>
       </c>
       <c r="C885" t="n">
-        <v>1.971666666666668</v>
+        <v>2.001666666666669</v>
       </c>
       <c r="D885" t="n">
-        <v>0.9016666666666637</v>
+        <v>0.9316666666666613</v>
       </c>
       <c r="E885" t="n">
-        <v>1.304999999999996</v>
+        <v>1.354999999999997</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B886" t="n">
+        <v>2.49366666666667</v>
+      </c>
+      <c r="C886" t="n">
+        <v>2.138666666666669</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1.078666666666656</v>
+      </c>
+      <c r="E886" t="n">
+        <v>1.591333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E886"/>
+  <dimension ref="A1:E887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15499,16 +15499,33 @@
         <v>45170</v>
       </c>
       <c r="B886" t="n">
-        <v>2.49366666666667</v>
+        <v>2.413666666666671</v>
       </c>
       <c r="C886" t="n">
-        <v>2.138666666666669</v>
+        <v>2.108666666666672</v>
       </c>
       <c r="D886" t="n">
-        <v>1.078666666666656</v>
+        <v>1.118666666666655</v>
       </c>
       <c r="E886" t="n">
-        <v>1.591333333333335</v>
+        <v>1.601333333333336</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B887" t="n">
+        <v>2.338000000000001</v>
+      </c>
+      <c r="C887" t="n">
+        <v>2.128666666666664</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1.199333333333332</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1.663666666666661</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E887"/>
+  <dimension ref="A1:E888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15516,16 +15516,33 @@
         <v>45200</v>
       </c>
       <c r="B887" t="n">
-        <v>2.338000000000001</v>
+        <v>2.308</v>
       </c>
       <c r="C887" t="n">
-        <v>2.128666666666664</v>
+        <v>2.148666666666664</v>
       </c>
       <c r="D887" t="n">
-        <v>1.199333333333332</v>
+        <v>1.229333333333329</v>
       </c>
       <c r="E887" t="n">
-        <v>1.663666666666661</v>
+        <v>1.723666666666663</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B888" t="n">
+        <v>2.060666666666666</v>
+      </c>
+      <c r="C888" t="n">
+        <v>2.106999999999999</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1.513000000000002</v>
+      </c>
+      <c r="E888" t="n">
+        <v>2.01733333333333</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E888"/>
+  <dimension ref="A1:E889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15386,7 +15386,7 @@
         <v>-0.09499999999999886</v>
       </c>
       <c r="D879" t="n">
-        <v>-0.5573333333333359</v>
+        <v>-0.5473333333333379</v>
       </c>
       <c r="E879" t="n">
         <v>-0.462333333333337</v>
@@ -15397,16 +15397,16 @@
         <v>44986</v>
       </c>
       <c r="B880" t="n">
-        <v>1.481999999999996</v>
+        <v>1.491999999999997</v>
       </c>
       <c r="C880" t="n">
         <v>0.2963333333333367</v>
       </c>
       <c r="D880" t="n">
-        <v>-0.2610000000000063</v>
+        <v>-0.2510000000000048</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.1030000000000051</v>
+        <v>-0.1130000000000031</v>
       </c>
     </row>
     <row r="881">
@@ -15414,10 +15414,10 @@
         <v>45017</v>
       </c>
       <c r="B881" t="n">
-        <v>2.614000000000001</v>
+        <v>2.624000000000002</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4793333333333294</v>
+        <v>0.4693333333333314</v>
       </c>
       <c r="D881" t="n">
         <v>0.1229999999999976</v>
@@ -15431,16 +15431,16 @@
         <v>45047</v>
       </c>
       <c r="B882" t="n">
-        <v>2.21466666666667</v>
+        <v>2.224666666666671</v>
       </c>
       <c r="C882" t="n">
-        <v>0.84866666666667</v>
+        <v>0.8386666666666684</v>
       </c>
       <c r="D882" t="n">
-        <v>0.2933333333333259</v>
+        <v>0.3033333333333239</v>
       </c>
       <c r="E882" t="n">
-        <v>0.466666666666665</v>
+        <v>0.456666666666667</v>
       </c>
     </row>
     <row r="883">
@@ -15448,13 +15448,13 @@
         <v>45078</v>
       </c>
       <c r="B883" t="n">
-        <v>2.495333333333338</v>
+        <v>2.505333333333336</v>
       </c>
       <c r="C883" t="n">
         <v>1.260666666666665</v>
       </c>
       <c r="D883" t="n">
-        <v>0.570999999999998</v>
+        <v>0.5809999999999995</v>
       </c>
       <c r="E883" t="n">
         <v>0.8433333333333337</v>
@@ -15471,7 +15471,7 @@
         <v>1.605333333333331</v>
       </c>
       <c r="D884" t="n">
-        <v>0.6913333333333398</v>
+        <v>0.7013333333333414</v>
       </c>
       <c r="E884" t="n">
         <v>1.026666666666671</v>
@@ -15482,7 +15482,7 @@
         <v>45139</v>
       </c>
       <c r="B885" t="n">
-        <v>3.284000000000002</v>
+        <v>3.294000000000004</v>
       </c>
       <c r="C885" t="n">
         <v>2.001666666666669</v>
@@ -15491,7 +15491,7 @@
         <v>0.9316666666666613</v>
       </c>
       <c r="E885" t="n">
-        <v>1.354999999999997</v>
+        <v>1.344999999999995</v>
       </c>
     </row>
     <row r="886">
@@ -15499,7 +15499,7 @@
         <v>45170</v>
       </c>
       <c r="B886" t="n">
-        <v>2.413666666666671</v>
+        <v>2.423666666666669</v>
       </c>
       <c r="C886" t="n">
         <v>2.108666666666672</v>
@@ -15516,7 +15516,7 @@
         <v>45200</v>
       </c>
       <c r="B887" t="n">
-        <v>2.308</v>
+        <v>2.318000000000001</v>
       </c>
       <c r="C887" t="n">
         <v>2.148666666666664</v>
@@ -15525,7 +15525,7 @@
         <v>1.229333333333329</v>
       </c>
       <c r="E887" t="n">
-        <v>1.723666666666663</v>
+        <v>1.713666666666661</v>
       </c>
     </row>
     <row r="888">
@@ -15533,16 +15533,33 @@
         <v>45231</v>
       </c>
       <c r="B888" t="n">
-        <v>2.060666666666666</v>
+        <v>2.070666666666668</v>
       </c>
       <c r="C888" t="n">
-        <v>2.106999999999999</v>
+        <v>2.096999999999998</v>
       </c>
       <c r="D888" t="n">
         <v>1.513000000000002</v>
       </c>
       <c r="E888" t="n">
         <v>2.01733333333333</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1.602666666666668</v>
+      </c>
+      <c r="C889" t="n">
+        <v>2.040333333333333</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1.510666666666669</v>
+      </c>
+      <c r="E889" t="n">
+        <v>2.071000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E889"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15471,7 +15471,7 @@
         <v>1.605333333333331</v>
       </c>
       <c r="D884" t="n">
-        <v>0.7013333333333414</v>
+        <v>0.6913333333333398</v>
       </c>
       <c r="E884" t="n">
         <v>1.026666666666671</v>
@@ -15536,7 +15536,7 @@
         <v>2.070666666666668</v>
       </c>
       <c r="C888" t="n">
-        <v>2.096999999999998</v>
+        <v>2.106999999999999</v>
       </c>
       <c r="D888" t="n">
         <v>1.513000000000002</v>
@@ -15553,13 +15553,30 @@
         <v>1.602666666666668</v>
       </c>
       <c r="C889" t="n">
-        <v>2.040333333333333</v>
+        <v>2.010333333333332</v>
       </c>
       <c r="D889" t="n">
-        <v>1.510666666666669</v>
+        <v>1.500666666666667</v>
       </c>
       <c r="E889" t="n">
-        <v>2.071000000000002</v>
+        <v>2.021000000000001</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1.24466666666666</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1.901333333333334</v>
+      </c>
+      <c r="D890" t="n">
+        <v>1.590999999999998</v>
+      </c>
+      <c r="E890" t="n">
+        <v>1.865666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/indices/data/monthly_nino_index.xlsx
+++ b/indices/data/monthly_nino_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E890"/>
+  <dimension ref="A1:E891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15471,7 +15471,7 @@
         <v>1.605333333333331</v>
       </c>
       <c r="D884" t="n">
-        <v>0.6913333333333398</v>
+        <v>0.7013333333333414</v>
       </c>
       <c r="E884" t="n">
         <v>1.026666666666671</v>
@@ -15499,7 +15499,7 @@
         <v>45170</v>
       </c>
       <c r="B886" t="n">
-        <v>2.423666666666669</v>
+        <v>2.413666666666671</v>
       </c>
       <c r="C886" t="n">
         <v>2.108666666666672</v>
@@ -15525,7 +15525,7 @@
         <v>1.229333333333329</v>
       </c>
       <c r="E887" t="n">
-        <v>1.713666666666661</v>
+        <v>1.723666666666663</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>2.070666666666668</v>
       </c>
       <c r="C888" t="n">
-        <v>2.106999999999999</v>
+        <v>2.096999999999998</v>
       </c>
       <c r="D888" t="n">
         <v>1.513000000000002</v>
@@ -15567,16 +15567,33 @@
         <v>45292</v>
       </c>
       <c r="B890" t="n">
-        <v>1.24466666666666</v>
+        <v>1.254666666666662</v>
       </c>
       <c r="C890" t="n">
-        <v>1.901333333333334</v>
+        <v>1.861333333333334</v>
       </c>
       <c r="D890" t="n">
-        <v>1.590999999999998</v>
+        <v>1.540999999999997</v>
       </c>
       <c r="E890" t="n">
-        <v>1.865666666666666</v>
+        <v>1.815666666666665</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.9803333333333271</v>
+      </c>
+      <c r="C891" t="n">
+        <v>1.545000000000002</v>
+      </c>
+      <c r="D891" t="n">
+        <v>1.292666666666662</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1.557666666666663</v>
       </c>
     </row>
   </sheetData>
